--- a/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
+++ b/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>33.52145286177758</v>
+        <v>43.70127254258055</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>19.35462771094762</v>
+        <v>28.06404535899723</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>16.11976217887577</v>
+        <v>11.40638751825383</v>
       </c>
     </row>
     <row r="5">
@@ -406,47 +406,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>10.52737598697025</v>
+        <v>6.331668384342459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EastwardVelocity</t>
+          <t>SummitRugosity</t>
         </is>
       </c>
       <c r="B6">
-        <v>8.823163960556091</v>
+        <v>4.146492798661941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SummitRugosity</t>
+          <t>Sampling_Depth</t>
         </is>
       </c>
       <c r="B7">
-        <v>7.740751877158062</v>
+        <v>3.509415862602818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>EastwardVelocity</t>
         </is>
       </c>
       <c r="B8">
-        <v>2.951273980105759</v>
+        <v>2.762750217538951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SummitAreaKm2</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.9615914436088654</v>
+        <v>0.07796731702221553</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
+++ b/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
@@ -376,77 +376,77 @@
         </is>
       </c>
       <c r="B2">
-        <v>43.70127254258055</v>
+        <v>25.94156835490609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BottomDepth</t>
+          <t>seafloorTemp</t>
         </is>
       </c>
       <c r="B3">
-        <v>28.06404535899723</v>
+        <v>17.50445410485165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>seafloorTemp</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B4">
-        <v>11.40638751825383</v>
+        <v>16.27608547718301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NorthwardVelocity</t>
+          <t>SummitRugosity</t>
         </is>
       </c>
       <c r="B5">
-        <v>6.331668384342459</v>
+        <v>12.8889133256855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SummitRugosity</t>
+          <t>NorthwardVelocity</t>
         </is>
       </c>
       <c r="B6">
-        <v>4.146492798661941</v>
+        <v>10.64940849281422</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sampling_Depth</t>
+          <t>EastwardVelocity</t>
         </is>
       </c>
       <c r="B7">
-        <v>3.509415862602818</v>
+        <v>6.504918017284828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EastwardVelocity</t>
+          <t>Sampling_Depth</t>
         </is>
       </c>
       <c r="B8">
-        <v>2.762750217538951</v>
+        <v>6.313939223591388</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>BottomDepth</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.07796731702221553</v>
+        <v>3.920713003683307</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
+++ b/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>25.94156835490609</v>
+        <v>24.74752479652351</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>17.50445410485165</v>
+        <v>17.54282074558445</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>16.27608547718301</v>
+        <v>16.83120140573486</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>12.8889133256855</v>
+        <v>12.90192333711556</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>10.64940849281422</v>
+        <v>11.15349735918752</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>6.504918017284828</v>
+        <v>7.166798298852618</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>6.313939223591388</v>
+        <v>5.857640853090421</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>3.920713003683307</v>
+        <v>3.798593203911072</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
+++ b/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_log_richness_gaussian.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,21 +372,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LandMinDist</t>
+          <t>seafloorTemp</t>
         </is>
       </c>
       <c r="B2">
-        <v>24.74752479652351</v>
+        <v>19.59198064734055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>seafloorTemp</t>
+          <t>SummitDepth</t>
         </is>
       </c>
       <c r="B3">
-        <v>17.54282074558445</v>
+        <v>15.30488708731421</v>
       </c>
     </row>
     <row r="4">
@@ -396,57 +396,147 @@
         </is>
       </c>
       <c r="B4">
-        <v>16.83120140573486</v>
+        <v>12.68843891121965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SummitRugosity</t>
+          <t>SummitAreaKm2</t>
         </is>
       </c>
       <c r="B5">
-        <v>12.90192333711556</v>
+        <v>11.52238437284955</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NorthwardVelocity</t>
+          <t>SSTmean</t>
         </is>
       </c>
       <c r="B6">
-        <v>11.15349735918752</v>
+        <v>9.140007521283884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EastwardVelocity</t>
+          <t>NorthwardVelocity</t>
         </is>
       </c>
       <c r="B7">
-        <v>7.166798298852618</v>
+        <v>5.580504217674493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sampling_Depth</t>
+          <t>LandMinDist</t>
         </is>
       </c>
       <c r="B8">
-        <v>5.857640853090421</v>
+        <v>5.458057246026876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>ReefMinDist</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>4.978408595861911</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chla</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>3.229666855750943</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SuspendedParticulateMatter</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>2.941437965740408</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sampling_Depth</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>2.744200149279661</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TravelTime</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>2.734765751487163</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EastwardVelocity</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>2.482030884451187</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>BottomDepth</t>
         </is>
       </c>
-      <c r="B9">
-        <v>3.798593203911072</v>
+      <c r="B15">
+        <v>0.9032852840035749</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SummitRugosity</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.6604626714574068</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SSTmax</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.0394818382585294</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
